--- a/entregable exel Colchones S.A.S.xlsx
+++ b/entregable exel Colchones S.A.S.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ab04a33196aeb8c/Documentos/Documentos Sena/20-04-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ab04a33196aeb8c/Documentos/Documentos Sena/TRIMESTRE III/20-04-2022/20-04-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB74E21-782D-4723-BE01-BAC57C669233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{2EB74E21-782D-4723-BE01-BAC57C669233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BEE804-CDF4-4374-9B8C-243A5DE955CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00536DA4-FDB3-448F-BA71-E9C364CEF566}"/>
+    <workbookView xWindow="2388" yWindow="888" windowWidth="17280" windowHeight="8880" xr2:uid="{00536DA4-FDB3-448F-BA71-E9C364CEF566}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>empresa</t>
   </si>
@@ -82,24 +82,9 @@
     <t>id_sede</t>
   </si>
   <si>
-    <t>base cama matrimonial</t>
-  </si>
-  <si>
-    <t>1,500,600</t>
-  </si>
-  <si>
     <t xml:space="preserve">base de abedul de 2mx2,16m gris </t>
   </si>
   <si>
-    <t>Colchon</t>
-  </si>
-  <si>
-    <t>cochon 1,9mx1,2 sencillo</t>
-  </si>
-  <si>
-    <t>1,120,000</t>
-  </si>
-  <si>
     <t>ofertas</t>
   </si>
   <si>
@@ -110,6 +95,189 @@
   </si>
   <si>
     <t>porcentage descuento</t>
+  </si>
+  <si>
+    <t>Cochon dublin azul doble base</t>
+  </si>
+  <si>
+    <t>1,500,000</t>
+  </si>
+  <si>
+    <t>2,500,000</t>
+  </si>
+  <si>
+    <t>Sofa cama comedor</t>
+  </si>
+  <si>
+    <t>Sofá cama de cuero combinado</t>
+  </si>
+  <si>
+    <t>1,400,000</t>
+  </si>
+  <si>
+    <t>sofa cama  1,9mx1,2m sencillo</t>
+  </si>
+  <si>
+    <t>Sofa en L de 4m x0,80m</t>
+  </si>
+  <si>
+    <t>Colchon confort dual</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
+  </si>
+  <si>
+    <t>Luxe naturals</t>
+  </si>
+  <si>
+    <t>Colchon de 2,50mx2,10m</t>
+  </si>
+  <si>
+    <t>Real dreams naturals</t>
+  </si>
+  <si>
+    <t>Cochon de 2,20mx1,90m</t>
+  </si>
+  <si>
+    <t>Colchon Orthopack</t>
+  </si>
+  <si>
+    <t>Colchon Confort dual vrII</t>
+  </si>
+  <si>
+    <t>1,200,000</t>
+  </si>
+  <si>
+    <t>Colchon de 2,60mx2,20m</t>
+  </si>
+  <si>
+    <t>Base cama haden + Colchon cabecero atenas</t>
+  </si>
+  <si>
+    <t>3,200,000</t>
+  </si>
+  <si>
+    <t>Colchon de 2,40mx2,5m</t>
+  </si>
+  <si>
+    <t>Combo pocket pantom cabecero basecama</t>
+  </si>
+  <si>
+    <t>2,145,000</t>
+  </si>
+  <si>
+    <t>Base cama de 2,50mx2,50m colchon de 2,45mx2,45m</t>
+  </si>
+  <si>
+    <t>Super top mas base cama</t>
+  </si>
+  <si>
+    <t>1,423,000</t>
+  </si>
+  <si>
+    <t>Colchon dublin doble base</t>
+  </si>
+  <si>
+    <t>Sofá moderno rojo</t>
+  </si>
+  <si>
+    <t>1,110,000</t>
+  </si>
+  <si>
+    <t>1,156,000</t>
+  </si>
+  <si>
+    <t>sofá rojo de 2mx 0,90m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofá en L gris </t>
+  </si>
+  <si>
+    <t>sofa gris 4mx0,90m</t>
+  </si>
+  <si>
+    <t>Sofá blanco sencillo</t>
+  </si>
+  <si>
+    <t>1,450,000</t>
+  </si>
+  <si>
+    <t>Sofá blanco 4,10mx1m</t>
+  </si>
+  <si>
+    <t>Sofá neo pequeño</t>
+  </si>
+  <si>
+    <t>Sofa beich 5mx0,90m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofá cama element matrimonial </t>
+  </si>
+  <si>
+    <t>Sofa cama negro mtrimonial 4mx0,90m armado (1,90m)</t>
+  </si>
+  <si>
+    <t>Sofá cama espuma al piso</t>
+  </si>
+  <si>
+    <t>1,045,000</t>
+  </si>
+  <si>
+    <t>Sofá cama de espuma 2mx0,90 armado (1,90m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofa cama de tres piezas </t>
+  </si>
+  <si>
+    <t>1,948,000</t>
+  </si>
+  <si>
+    <t>Sofá cama azul oscuro de 2mx0,90m armado(1,90m)</t>
+  </si>
+  <si>
+    <t>Sofá cama italiano</t>
+  </si>
+  <si>
+    <t>2,110,000</t>
+  </si>
+  <si>
+    <t>Sofá cama beich  de 4mx0,90 armado(2m)</t>
+  </si>
+  <si>
+    <t>Sofa cama doble moderno</t>
+  </si>
+  <si>
+    <t>2,500,999</t>
+  </si>
+  <si>
+    <t>Sofá cama doble gris 4,50mx0,90 armado (2m)</t>
+  </si>
+  <si>
+    <t>Sofa blanco</t>
+  </si>
+  <si>
+    <t>1,115,999</t>
+  </si>
+  <si>
+    <t>Sofá blanco de 1,50mx0,90m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colchon matrimonial </t>
+  </si>
+  <si>
+    <t>2,313,000</t>
+  </si>
+  <si>
+    <t>Colchon de 2,50mx2,15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euro fris base base cama </t>
+  </si>
+  <si>
+    <t>4,715,000</t>
+  </si>
+  <si>
+    <t>Base cama de 2,6mx2,6m colchon de 2,5mx2,5m</t>
   </si>
 </sst>
 </file>
@@ -232,34 +400,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,78 +745,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE307A6-2249-4E23-8EAD-922DA5CD632F}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="45.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="8" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -672,15 +844,17 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="10">
+        <v>2</v>
+      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -690,55 +864,505 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="16">
+        <v>600000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="16">
+        <v>856000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>44674</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>44681</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="9">
         <v>0.25</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="16">
+        <v>977000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44674</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44681</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>44674</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44681</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44674</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44681</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>44674</v>
+      </c>
+      <c r="F13" s="8">
+        <v>44681</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="16">
+        <v>948000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="16">
+        <v>852000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="16">
+        <v>850000</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="10">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="10">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="10">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="17">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,5 +1373,6 @@
     <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>